--- a/src/main/resources/170-microservices-event-sourcing/user-service_structure.xlsx
+++ b/src/main/resources/170-microservices-event-sourcing/user-service_structure.xlsx
@@ -304,7 +304,7 @@
     <t>login()</t>
   </si>
   <si>
-    <t>login(javax.servlet.http.HttpServletRequest)</t>
+    <t>login(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.ui.Model)</t>
   </si>
   <si>
     <t>源类名</t>
